--- a/Split 3/extras/Rubric 3.xlsx
+++ b/Split 3/extras/Rubric 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Group Name:</t>
   </si>
@@ -79,7 +79,46 @@
     <t>Business Idea Integration</t>
   </si>
   <si>
-    <t>&lt;item to be designed together with teacher&gt;</t>
+    <t>Recap</t>
+  </si>
+  <si>
+    <t>Describes and summarizes the business idea previously presented (topic analysis) and explains how it will be expanded (e.g., connection of topic and sentiment analysis)</t>
+  </si>
+  <si>
+    <t>&lt;- but lacking in one or two small ways. E.g. business idea is unclear in certain aspects.</t>
+  </si>
+  <si>
+    <t>Topics and sentiment evolution</t>
+  </si>
+  <si>
+    <t>The group shows by means of visuals and/or statistics how Lufthansa customer team is handling different topics by comparing sentiment (evolution) per topics.</t>
+  </si>
+  <si>
+    <t>&lt;- but lacking in one or two small ways (e.g., plot is unclear)</t>
+  </si>
+  <si>
+    <t>Non-response and characteristics of tweets/users/conversations</t>
+  </si>
+  <si>
+    <t>The group shows by means of visuals and/or statistics which characteristics of tweets/users/conversations are prioritized by Lufthansa customer team (e.g., compares non-response rates between topics, languages and others).</t>
+  </si>
+  <si>
+    <t>&lt;- but lacking in one or two small ways (e.g., only one or two characteristics are shown)</t>
+  </si>
+  <si>
+    <t>&lt;- but lacking in larger or more ways (e.g., not clear what the point of some plots is).</t>
+  </si>
+  <si>
+    <t>Comparison with other airlines</t>
+  </si>
+  <si>
+    <t>Mentions by means of statistics and/or visuals how the trends discussed for Lufthansa compare with major competitor(s).</t>
+  </si>
+  <si>
+    <t>&lt;- but lacking in one or two ways (e.g., evidence is somewhat misinterpreted)</t>
+  </si>
+  <si>
+    <t>Lacking in more ways</t>
   </si>
   <si>
     <t>Interpretation</t>
@@ -214,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +288,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -712,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -807,9 +859,21 @@
     <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -819,19 +883,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1148,21 +1212,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="43" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="44" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="44" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="44" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="44" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="43" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="47" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="48" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="48" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="48" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="48" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1238,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75" customFormat="1" s="5">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="5">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1260,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="66" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="63" customFormat="1" s="5">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1276,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="5">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1292,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="63" customFormat="1" s="5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1308,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="5">
       <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1324,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="96.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="91.5" customFormat="1" s="5">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1340,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="28"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="5">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1356,7 @@
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="5">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1302,199 +1366,241 @@
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="29.25" customFormat="1" s="5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="56.25" customFormat="1" s="5">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="5">
+      <c r="A12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="35">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="56.25" customFormat="1" s="5">
+      <c r="A13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="5">
+      <c r="A14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="35">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="81" customFormat="1" s="5">
+      <c r="A15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A14" s="19" t="s">
+      <c r="D15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="5">
+      <c r="A16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="35">
+        <v>10</v>
+      </c>
+      <c r="C16" s="35">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35">
+        <v>5</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="43.5" customFormat="1" s="5">
+      <c r="A17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="5">
+      <c r="A18" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="60" customFormat="1" s="5">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="35">
+        <v>4</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75" customFormat="1" s="5">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="48.75" customFormat="1" s="5">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="20">
-        <v>12</v>
-      </c>
-      <c r="C19" s="21">
-        <v>9</v>
-      </c>
-      <c r="D19" s="21">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="54" customFormat="1" s="5">
-      <c r="A20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" customFormat="1" s="5">
+      <c r="F20" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="5">
       <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="20">
+        <v>12</v>
+      </c>
+      <c r="C21" s="21">
+        <v>9</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="48.75" customFormat="1" s="5">
+      <c r="A22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="21">
+      <c r="E22" s="17"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="5">
+      <c r="A23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="20">
+        <v>8</v>
+      </c>
+      <c r="C23" s="21">
         <v>5</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D23" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="65.25" customFormat="1" s="5">
-      <c r="A23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20">
-        <v>5</v>
-      </c>
-      <c r="C24" s="21">
-        <v>3</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="62.25" customFormat="1" s="5">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="65.25" customFormat="1" s="5">
       <c r="A25" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="28"/>
+      <c r="F25" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" customFormat="1" s="5">
       <c r="A26" s="19" t="s">
@@ -1512,15 +1618,15 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="50.25" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="62.25" customFormat="1" s="5">
       <c r="A27" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>8</v>
@@ -1544,92 +1650,92 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="51" customFormat="1" s="5">
-      <c r="A30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="50.25" customFormat="1" s="5">
+      <c r="A29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="5">
+      <c r="A30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="20">
+        <v>5</v>
+      </c>
+      <c r="C30" s="21">
+        <v>3</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" customFormat="1" s="5">
-      <c r="A31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="20">
-        <v>5</v>
-      </c>
-      <c r="C31" s="21">
-        <v>2</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="33.75" customFormat="1" s="5">
+      <c r="A31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="51" customFormat="1" s="5">
       <c r="A32" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25" customFormat="1" s="5">
+      <c r="F32" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" customFormat="1" s="5">
       <c r="A33" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="20">
+        <v>5</v>
+      </c>
+      <c r="C33" s="21">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21">
         <v>0</v>
-      </c>
-      <c r="C33" s="21">
-        <v>-2</v>
-      </c>
-      <c r="D33" s="21">
-        <v>-5</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="48.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="33.75" customFormat="1" s="5">
       <c r="A34" s="15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="28"/>
@@ -1639,103 +1745,103 @@
         <v>9</v>
       </c>
       <c r="B35" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C35" s="21">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D35" s="21">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75" customFormat="1" s="5">
-      <c r="A36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="77.25" customFormat="1" s="5">
-      <c r="A37" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="48.75" customFormat="1" s="5">
+      <c r="A36" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25" customFormat="1" s="5">
-      <c r="A38" s="19" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25" customFormat="1" s="5">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B37" s="20">
         <v>5</v>
       </c>
-      <c r="C38" s="21">
-        <v>4</v>
-      </c>
-      <c r="D38" s="21">
+      <c r="C37" s="21">
+        <v>3</v>
+      </c>
+      <c r="D37" s="21">
         <v>0</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="33.75" customFormat="1" s="5">
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75" customFormat="1" s="5">
+      <c r="A38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="77.25" customFormat="1" s="5">
       <c r="A39" s="15" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25" customFormat="1" s="5">
       <c r="A40" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="20">
+        <v>5</v>
+      </c>
+      <c r="C40" s="21">
+        <v>4</v>
+      </c>
+      <c r="D40" s="21">
         <v>0</v>
-      </c>
-      <c r="C40" s="21">
-        <v>-10</v>
-      </c>
-      <c r="D40" s="21">
-        <v>-20</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="48.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33.75" customFormat="1" s="5">
       <c r="A41" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="28"/>
@@ -1748,26 +1854,26 @@
         <v>0</v>
       </c>
       <c r="C42" s="21">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D42" s="21">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="33.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="48.75" customFormat="1" s="5">
       <c r="A43" s="15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="28"/>
@@ -1776,37 +1882,69 @@
       <c r="A44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="20">
+        <v>0</v>
+      </c>
+      <c r="C44" s="21">
+        <v>-5</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-10</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="33.75" customFormat="1" s="5">
+      <c r="A45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25" customFormat="1" s="5">
+      <c r="A46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="37">
         <v>5</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C46" s="38">
         <v>4</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D46" s="38">
         <v>0</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="30">
-      <c r="A45" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40">
-        <f>SUM(F3:F44)&amp;" / 100"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="41"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="30">
+      <c r="A47" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44">
+        <f>SUM(F3:F46)&amp;" / 100"</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1817,18 +1955,18 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
